--- a/Dokumentacija/Obrasci vezani uz projekt/P-PDV Obrazac za prijavu u VIES registar.xlsx
+++ b/Dokumentacija/Obrasci vezani uz projekt/P-PDV Obrazac za prijavu u VIES registar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>MINISTARSTVO FINANCIJA-POREZNA UPRAVA</t>
   </si>
@@ -46,12 +46,6 @@
     <t>Država</t>
   </si>
   <si>
-    <t>Datum početka obavljanja djelatnosti u RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porezni broj u državi sjedišta </t>
-  </si>
-  <si>
     <t>Djelatnost</t>
   </si>
   <si>
@@ -106,7 +100,7 @@
     <t>Potpis i pečat djelatnika</t>
   </si>
   <si>
-    <t>RAZLOG DODJELJIVANJA PDV IDENTIFIKACIJSKOG BROJA</t>
+    <t>RAZLOG UNOSA U VIES REGISTAR</t>
   </si>
 </sst>
 </file>
@@ -158,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -170,17 +164,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -208,33 +191,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,15 +575,15 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -666,18 +645,20 @@
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="6"/>
@@ -686,123 +667,123 @@
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>19</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>20</v>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
+      <c r="A22" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>24</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -811,83 +792,58 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+    <row r="24" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="B9:G9"/>
+  <mergeCells count="10">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="B9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
